--- a/data/drkat_rm.xlsx
+++ b/data/drkat_rm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C768A959-956B-8E47-93A1-48E42B5EE0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825A9267-D42E-8142-A696-32032C24FAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37460" yWindow="5080" windowWidth="28040" windowHeight="16260" xr2:uid="{93C356A5-8787-7241-8D0C-A6DC9381A13E}"/>
   </bookViews>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3C697F-26E1-CE4B-A129-0E57E930066C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -469,6 +469,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
